--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3677,28 +3677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.3093047889876</v>
+        <v>175.4675060567091</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.4503572894089</v>
+        <v>240.0823828667094</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.6059723130806</v>
+        <v>217.1692572037208</v>
       </c>
       <c r="AD2" t="n">
-        <v>144309.3047889876</v>
+        <v>175467.5060567091</v>
       </c>
       <c r="AE2" t="n">
-        <v>197450.3572894089</v>
+        <v>240082.3828667094</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.311967474638153e-06</v>
+        <v>5.599045343119999e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.118827160493827</v>
       </c>
       <c r="AH2" t="n">
-        <v>178605.9723130806</v>
+        <v>217169.2572037208</v>
       </c>
     </row>
     <row r="3">
@@ -3783,28 +3783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.09781460610311</v>
+        <v>117.0121238698361</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.4852694803845</v>
+        <v>160.1011500892153</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.9364999019463</v>
+        <v>144.8213210281201</v>
       </c>
       <c r="AD3" t="n">
-        <v>96097.81460610311</v>
+        <v>117012.1238698361</v>
       </c>
       <c r="AE3" t="n">
-        <v>131485.2694803845</v>
+        <v>160101.1500892153</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.409286796825323e-06</v>
+        <v>7.454118102093552e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.594907407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>118936.4999019463</v>
+        <v>144821.3210281201</v>
       </c>
     </row>
     <row r="4">
@@ -3889,28 +3889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.75386519895342</v>
+        <v>110.4975822620942</v>
       </c>
       <c r="AB4" t="n">
-        <v>122.8051980262314</v>
+        <v>151.1876668602153</v>
       </c>
       <c r="AC4" t="n">
-        <v>111.084842284818</v>
+        <v>136.7585281283407</v>
       </c>
       <c r="AD4" t="n">
-        <v>89753.86519895343</v>
+        <v>110497.5822620942</v>
       </c>
       <c r="AE4" t="n">
-        <v>122805.1980262314</v>
+        <v>151187.6668602153</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.825337513316506e-06</v>
+        <v>8.157472481177907e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.197530864197531</v>
       </c>
       <c r="AH4" t="n">
-        <v>111084.842284818</v>
+        <v>136758.5281283408</v>
       </c>
     </row>
     <row r="5">
@@ -3995,28 +3995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.75584406637816</v>
+        <v>107.499561129519</v>
       </c>
       <c r="AB5" t="n">
-        <v>118.7031732492863</v>
+        <v>147.0856420832702</v>
       </c>
       <c r="AC5" t="n">
-        <v>107.3743089953553</v>
+        <v>133.0479948388781</v>
       </c>
       <c r="AD5" t="n">
-        <v>86755.84406637817</v>
+        <v>107499.561129519</v>
       </c>
       <c r="AE5" t="n">
-        <v>118703.1732492863</v>
+        <v>147085.6420832702</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.046492470037583e-06</v>
+        <v>8.53134590838369e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.016203703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>107374.3089953553</v>
+        <v>133047.994838878</v>
       </c>
     </row>
     <row r="6">
@@ -4101,28 +4101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>74.82283979484137</v>
+        <v>95.65180820400275</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.3759103579842</v>
+        <v>130.8750238446173</v>
       </c>
       <c r="AC6" t="n">
-        <v>92.60529715893648</v>
+        <v>118.3844952531714</v>
       </c>
       <c r="AD6" t="n">
-        <v>74822.83979484138</v>
+        <v>95651.80820400275</v>
       </c>
       <c r="AE6" t="n">
-        <v>102375.9103579842</v>
+        <v>130875.0238446173</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.146329936845173e-06</v>
+        <v>8.70012609957775e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.935185185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>92605.29715893648</v>
+        <v>118384.4952531714</v>
       </c>
     </row>
     <row r="7">
@@ -4207,28 +4207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>73.29894817591773</v>
+        <v>94.12791658507911</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.2908546156205</v>
+        <v>128.7899681022536</v>
       </c>
       <c r="AC7" t="n">
-        <v>90.7192362102292</v>
+        <v>116.4984343044641</v>
       </c>
       <c r="AD7" t="n">
-        <v>73298.94817591773</v>
+        <v>94127.9165850791</v>
       </c>
       <c r="AE7" t="n">
-        <v>100290.8546156205</v>
+        <v>128789.9681022536</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.256355972069741e-06</v>
+        <v>8.88613057119877e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.854166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>90719.2362102292</v>
+        <v>116498.4343044641</v>
       </c>
     </row>
     <row r="8">
@@ -4313,28 +4313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>72.02891697642274</v>
+        <v>92.85788538558411</v>
       </c>
       <c r="AB8" t="n">
-        <v>98.55314189865015</v>
+        <v>127.0522553852833</v>
       </c>
       <c r="AC8" t="n">
-        <v>89.14736835607086</v>
+        <v>114.9265664503058</v>
       </c>
       <c r="AD8" t="n">
-        <v>72028.91697642274</v>
+        <v>92857.88538558412</v>
       </c>
       <c r="AE8" t="n">
-        <v>98553.14189865015</v>
+        <v>127052.2553852833</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.328201134927598e-06</v>
+        <v>9.007588383694025e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.804012345679012</v>
       </c>
       <c r="AH8" t="n">
-        <v>89147.36835607086</v>
+        <v>114926.5664503058</v>
       </c>
     </row>
     <row r="9">
@@ -4419,28 +4419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>71.32658163110906</v>
+        <v>92.15555004027044</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.59217569434381</v>
+        <v>126.091289180977</v>
       </c>
       <c r="AC9" t="n">
-        <v>88.27811541757868</v>
+        <v>114.0573135118136</v>
       </c>
       <c r="AD9" t="n">
-        <v>71326.58163110906</v>
+        <v>92155.55004027043</v>
       </c>
       <c r="AE9" t="n">
-        <v>97592.17569434381</v>
+        <v>126091.289180977</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.363125866872389e-06</v>
+        <v>9.066630375879218e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.777006172839505</v>
       </c>
       <c r="AH9" t="n">
-        <v>88278.11541757868</v>
+        <v>114057.3135118136</v>
       </c>
     </row>
     <row r="10">
@@ -4525,28 +4525,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>70.4361405202765</v>
+        <v>91.26510892943787</v>
       </c>
       <c r="AB10" t="n">
-        <v>96.373834883014</v>
+        <v>124.8729483696472</v>
       </c>
       <c r="AC10" t="n">
-        <v>87.17605134332972</v>
+        <v>112.9552494375647</v>
       </c>
       <c r="AD10" t="n">
-        <v>70436.1405202765</v>
+        <v>91265.10892943788</v>
       </c>
       <c r="AE10" t="n">
-        <v>96373.834883014</v>
+        <v>124872.9483696472</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.402199551935434e-06</v>
+        <v>9.13268637916611e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AH10" t="n">
-        <v>87176.05134332972</v>
+        <v>112955.2494375647</v>
       </c>
     </row>
     <row r="11">
@@ -4631,28 +4631,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>69.60857152633952</v>
+        <v>90.43753993550087</v>
       </c>
       <c r="AB11" t="n">
-        <v>95.24151847574269</v>
+        <v>123.7406319623759</v>
       </c>
       <c r="AC11" t="n">
-        <v>86.15180162475197</v>
+        <v>111.9309997189869</v>
       </c>
       <c r="AD11" t="n">
-        <v>69608.57152633951</v>
+        <v>90437.53993550087</v>
       </c>
       <c r="AE11" t="n">
-        <v>95241.51847574269</v>
+        <v>123740.6319623759</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.441535828967989e-06</v>
+        <v>9.199186307206275e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.722993827160495</v>
       </c>
       <c r="AH11" t="n">
-        <v>86151.80162475197</v>
+        <v>111930.9997189869</v>
       </c>
     </row>
     <row r="12">
@@ -4737,28 +4737,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>68.68764131335946</v>
+        <v>89.51660972252084</v>
       </c>
       <c r="AB12" t="n">
-        <v>93.98146112977044</v>
+        <v>122.4805746164036</v>
       </c>
       <c r="AC12" t="n">
-        <v>85.01200238337732</v>
+        <v>110.7912004776123</v>
       </c>
       <c r="AD12" t="n">
-        <v>68687.64131335946</v>
+        <v>89516.60972252084</v>
       </c>
       <c r="AE12" t="n">
-        <v>93981.46112977044</v>
+        <v>122480.5746164036</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.476040413761564e-06</v>
+        <v>9.257518019786231e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.699845679012346</v>
       </c>
       <c r="AH12" t="n">
-        <v>85012.00238337732</v>
+        <v>110791.2004776123</v>
       </c>
     </row>
     <row r="13">
@@ -4843,28 +4843,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>68.81946749852801</v>
+        <v>89.64843590768939</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.16183153207879</v>
+        <v>122.660945018712</v>
       </c>
       <c r="AC13" t="n">
-        <v>85.17515848764087</v>
+        <v>110.9543565818758</v>
       </c>
       <c r="AD13" t="n">
-        <v>68819.46749852801</v>
+        <v>89648.43590768939</v>
       </c>
       <c r="AE13" t="n">
-        <v>94161.8315320788</v>
+        <v>122660.945018712</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.474622417126212e-06</v>
+        <v>9.255120826118562e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.699845679012346</v>
       </c>
       <c r="AH13" t="n">
-        <v>85175.15848764087</v>
+        <v>110954.3565818758</v>
       </c>
     </row>
   </sheetData>
@@ -5140,28 +5140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.0332078424085</v>
+        <v>144.1343191733963</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.0252657599909</v>
+        <v>197.2109342503364</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.134433378736</v>
+        <v>178.3893994728248</v>
       </c>
       <c r="AD2" t="n">
-        <v>114033.2078424085</v>
+        <v>144134.3191733963</v>
       </c>
       <c r="AE2" t="n">
-        <v>156025.2657599909</v>
+        <v>197210.9342503364</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.874891716904231e-06</v>
+        <v>6.710502630305476e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.408950617283951</v>
       </c>
       <c r="AH2" t="n">
-        <v>141134.433378736</v>
+        <v>178389.3994728248</v>
       </c>
     </row>
     <row r="3">
@@ -5246,28 +5246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.93832174710766</v>
+        <v>106.0342060888071</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.5846031455217</v>
+        <v>145.0806786696674</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.3624936523706</v>
+        <v>131.234382319485</v>
       </c>
       <c r="AD3" t="n">
-        <v>85938.32174710766</v>
+        <v>106034.2060888071</v>
       </c>
       <c r="AE3" t="n">
-        <v>117584.6031455217</v>
+        <v>145080.6786696674</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.906935729331151e-06</v>
+        <v>8.497787170353186e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.270833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>106362.4936523706</v>
+        <v>131234.382319485</v>
       </c>
     </row>
     <row r="4">
@@ -5352,28 +5352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.15655524709986</v>
+        <v>101.2575770695366</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.3595380947079</v>
+        <v>138.545084115505</v>
       </c>
       <c r="AC4" t="n">
-        <v>88.06768042394302</v>
+        <v>125.3225357368053</v>
       </c>
       <c r="AD4" t="n">
-        <v>71156.55524709987</v>
+        <v>101257.5770695366</v>
       </c>
       <c r="AE4" t="n">
-        <v>97359.5380947079</v>
+        <v>138545.084115505</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.288818092110095e-06</v>
+        <v>9.159127612130159e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.962191358024691</v>
       </c>
       <c r="AH4" t="n">
-        <v>88067.68042394302</v>
+        <v>125322.5357368053</v>
       </c>
     </row>
     <row r="5">
@@ -5458,28 +5458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>69.17897784852804</v>
+        <v>89.36011353624804</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.65372945342587</v>
+        <v>122.2664496302208</v>
       </c>
       <c r="AC5" t="n">
-        <v>85.62011036175781</v>
+        <v>110.5975112795844</v>
       </c>
       <c r="AD5" t="n">
-        <v>69178.97784852804</v>
+        <v>89360.11353624804</v>
       </c>
       <c r="AE5" t="n">
-        <v>94653.72945342587</v>
+        <v>122266.4496302208</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.448872927897087e-06</v>
+        <v>9.436309137450255e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.846450617283951</v>
       </c>
       <c r="AH5" t="n">
-        <v>85620.1103617578</v>
+        <v>110597.5112795844</v>
       </c>
     </row>
     <row r="6">
@@ -5564,28 +5564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>67.40332893364257</v>
+        <v>87.58446462136257</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.22420827197934</v>
+        <v>119.8369284487743</v>
       </c>
       <c r="AC6" t="n">
-        <v>83.42245927201337</v>
+        <v>108.3998601898399</v>
       </c>
       <c r="AD6" t="n">
-        <v>67403.32893364257</v>
+        <v>87584.46462136257</v>
       </c>
       <c r="AE6" t="n">
-        <v>92224.20827197934</v>
+        <v>119836.9284487743</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.59203127558844e-06</v>
+        <v>9.684229476628278e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AH6" t="n">
-        <v>83422.45927201337</v>
+        <v>108399.8601898399</v>
       </c>
     </row>
     <row r="7">
@@ -5670,28 +5670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>66.28810314899168</v>
+        <v>86.46923883671168</v>
       </c>
       <c r="AB7" t="n">
-        <v>90.69830715313152</v>
+        <v>118.3110273299264</v>
       </c>
       <c r="AC7" t="n">
-        <v>82.04218801433224</v>
+        <v>107.0195889321588</v>
       </c>
       <c r="AD7" t="n">
-        <v>66288.10314899168</v>
+        <v>86469.23883671168</v>
       </c>
       <c r="AE7" t="n">
-        <v>90698.30715313152</v>
+        <v>118311.0273299265</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.659997534777009e-06</v>
+        <v>9.801932833103308e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.703703703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>82042.18801433223</v>
+        <v>107019.5889321588</v>
       </c>
     </row>
     <row r="8">
@@ -5776,28 +5776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>64.97110795137212</v>
+        <v>85.15224363909211</v>
       </c>
       <c r="AB8" t="n">
-        <v>88.89633622202184</v>
+        <v>116.5090563988168</v>
       </c>
       <c r="AC8" t="n">
-        <v>80.41219465980498</v>
+        <v>105.3895955776316</v>
       </c>
       <c r="AD8" t="n">
-        <v>64971.10795137212</v>
+        <v>85152.24363909211</v>
       </c>
       <c r="AE8" t="n">
-        <v>88896.33622202184</v>
+        <v>116509.0563988168</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.729973987083067e-06</v>
+        <v>9.923117423942509e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.657407407407408</v>
       </c>
       <c r="AH8" t="n">
-        <v>80412.19465980498</v>
+        <v>105389.5955776316</v>
       </c>
     </row>
     <row r="9">
@@ -5882,28 +5882,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>64.3685648010902</v>
+        <v>84.54970048881019</v>
       </c>
       <c r="AB9" t="n">
-        <v>88.07191010147884</v>
+        <v>115.6846302782738</v>
       </c>
       <c r="AC9" t="n">
-        <v>79.66645061111701</v>
+        <v>104.6438515289436</v>
       </c>
       <c r="AD9" t="n">
-        <v>64368.56480109021</v>
+        <v>84549.70048881019</v>
       </c>
       <c r="AE9" t="n">
-        <v>88071.91010147883</v>
+        <v>115684.6302782738</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.726605555372682e-06</v>
+        <v>9.917284004197143e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.661265432098766</v>
       </c>
       <c r="AH9" t="n">
-        <v>79666.45061111702</v>
+        <v>104643.8515289436</v>
       </c>
     </row>
     <row r="10">
@@ -5988,28 +5988,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>64.20449762030921</v>
+        <v>84.3856333080292</v>
       </c>
       <c r="AB10" t="n">
-        <v>87.84742614660121</v>
+        <v>115.4601463233961</v>
       </c>
       <c r="AC10" t="n">
-        <v>79.46339108982764</v>
+        <v>104.4407920076542</v>
       </c>
       <c r="AD10" t="n">
-        <v>64204.49762030921</v>
+        <v>84385.6333080292</v>
       </c>
       <c r="AE10" t="n">
-        <v>87847.42614660121</v>
+        <v>115460.1463233961</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.76490788369238e-06</v>
+        <v>9.983615631946862e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.63425925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>79463.39108982764</v>
+        <v>104440.7920076542</v>
       </c>
     </row>
   </sheetData>
@@ -6285,28 +6285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.85441771818662</v>
+        <v>86.99989759759652</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.20965196451057</v>
+        <v>119.037098057581</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.21841500511776</v>
+        <v>107.6763644886129</v>
       </c>
       <c r="AD2" t="n">
-        <v>68854.41771818663</v>
+        <v>86999.89759759651</v>
       </c>
       <c r="AE2" t="n">
-        <v>94209.65196451057</v>
+        <v>119037.098057581</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.760600062548662e-06</v>
+        <v>1.090029494025394e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.058641975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>85218.41500511776</v>
+        <v>107676.3644886129</v>
       </c>
     </row>
     <row r="3">
@@ -6391,28 +6391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.28099780185847</v>
+        <v>72.51172902728895</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.26965590108969</v>
+        <v>99.21374664680938</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.18146418002317</v>
+        <v>89.74492591423056</v>
       </c>
       <c r="AD3" t="n">
-        <v>54280.99780185847</v>
+        <v>72511.72902728895</v>
       </c>
       <c r="AE3" t="n">
-        <v>74269.65590108969</v>
+        <v>99213.74664680938</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.460623729933577e-06</v>
+        <v>1.222489035684286e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.618827160493828</v>
       </c>
       <c r="AH3" t="n">
-        <v>67181.46418002318</v>
+        <v>89744.92591423057</v>
       </c>
     </row>
     <row r="4">
@@ -6497,28 +6497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>53.52158884590643</v>
+        <v>71.75232007133691</v>
       </c>
       <c r="AB4" t="n">
-        <v>73.23059906479799</v>
+        <v>98.17468981051768</v>
       </c>
       <c r="AC4" t="n">
-        <v>66.24157346986141</v>
+        <v>88.8050352040688</v>
       </c>
       <c r="AD4" t="n">
-        <v>53521.58884590643</v>
+        <v>71752.32007133692</v>
       </c>
       <c r="AE4" t="n">
-        <v>73230.59906479799</v>
+        <v>98174.68981051768</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.552347624343672e-06</v>
+        <v>1.239845170310588e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.568672839506173</v>
       </c>
       <c r="AH4" t="n">
-        <v>66241.57346986141</v>
+        <v>88805.0352040688</v>
       </c>
     </row>
   </sheetData>
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.84134416436525</v>
+        <v>98.74935437628932</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.2424494371504</v>
+        <v>135.1132231716302</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.81650338563736</v>
+        <v>122.2182067847657</v>
       </c>
       <c r="AD2" t="n">
-        <v>79841.34416436525</v>
+        <v>98749.35437628932</v>
       </c>
       <c r="AE2" t="n">
-        <v>109242.4494371504</v>
+        <v>135113.2231716302</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.982805336636734e-06</v>
+        <v>9.077589183698996e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.490740740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>98816.50338563736</v>
+        <v>122218.2067847657</v>
       </c>
     </row>
     <row r="3">
@@ -6900,28 +6900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.81712900488576</v>
+        <v>80.81039056283042</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.58092308371052</v>
+        <v>110.5683414708396</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.50863849469233</v>
+        <v>100.0158541445329</v>
       </c>
       <c r="AD3" t="n">
-        <v>61817.12900488576</v>
+        <v>80810.39056283042</v>
       </c>
       <c r="AE3" t="n">
-        <v>84580.92308371051</v>
+        <v>110568.3414708396</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.841739714051505e-06</v>
+        <v>1.064238108046419e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.831018518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>76508.63849469234</v>
+        <v>100015.8541445329</v>
       </c>
     </row>
     <row r="4">
@@ -7006,28 +7006,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.02460984274649</v>
+        <v>78.01787140069115</v>
       </c>
       <c r="AB4" t="n">
-        <v>80.76007516882288</v>
+        <v>106.747493555952</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.05244694220663</v>
+        <v>96.55966259204722</v>
       </c>
       <c r="AD4" t="n">
-        <v>59024.60984274649</v>
+        <v>78017.87140069115</v>
       </c>
       <c r="AE4" t="n">
-        <v>80760.07516882288</v>
+        <v>106747.493555952</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.134160182041058e-06</v>
+        <v>1.117510766679033e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.645833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>73052.44694220663</v>
+        <v>96559.66259204721</v>
       </c>
     </row>
     <row r="5">
@@ -7112,28 +7112,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.37764386644982</v>
+        <v>76.37090542439448</v>
       </c>
       <c r="AB5" t="n">
-        <v>78.50662366104406</v>
+        <v>104.4940420481732</v>
       </c>
       <c r="AC5" t="n">
-        <v>71.01406168359046</v>
+        <v>94.52127733343103</v>
       </c>
       <c r="AD5" t="n">
-        <v>57377.64386644982</v>
+        <v>76370.90542439448</v>
       </c>
       <c r="AE5" t="n">
-        <v>78506.62366104405</v>
+        <v>104494.0420481732</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.260709460334038e-06</v>
+        <v>1.140565296852846e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.572530864197531</v>
       </c>
       <c r="AH5" t="n">
-        <v>71014.06168359045</v>
+        <v>94521.27733343103</v>
       </c>
     </row>
     <row r="6">
@@ -7218,28 +7218,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>57.54370666448953</v>
+        <v>76.5369682224342</v>
       </c>
       <c r="AB6" t="n">
-        <v>78.73383810749547</v>
+        <v>104.7212564946246</v>
       </c>
       <c r="AC6" t="n">
-        <v>71.21959110217009</v>
+        <v>94.72680675201067</v>
       </c>
       <c r="AD6" t="n">
-        <v>57543.70666448953</v>
+        <v>76536.9682224342</v>
       </c>
       <c r="AE6" t="n">
-        <v>78733.83810749547</v>
+        <v>104721.2564946246</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.254909768386604e-06</v>
+        <v>1.139508718934706e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.576388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>71219.59110217009</v>
+        <v>94726.80675201067</v>
       </c>
     </row>
   </sheetData>
@@ -7515,28 +7515,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.70994317566053</v>
+        <v>70.31524310979495</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.12006965148831</v>
+        <v>96.2084177123759</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.23703142511981</v>
+        <v>87.02642135529281</v>
       </c>
       <c r="AD2" t="n">
-        <v>52709.94317566053</v>
+        <v>70315.24310979494</v>
       </c>
       <c r="AE2" t="n">
-        <v>72120.0696514883</v>
+        <v>96208.4177123759</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.380856845453547e-06</v>
+        <v>1.250442350202921e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.80787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>65237.03142511981</v>
+        <v>87026.42135529281</v>
       </c>
     </row>
     <row r="3">
@@ -7621,28 +7621,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.51692855293491</v>
+        <v>68.12222848706932</v>
       </c>
       <c r="AB3" t="n">
-        <v>69.11949029569965</v>
+        <v>93.20783835658725</v>
       </c>
       <c r="AC3" t="n">
-        <v>62.5228231517071</v>
+        <v>84.31221308188009</v>
       </c>
       <c r="AD3" t="n">
-        <v>50516.92855293491</v>
+        <v>68122.22848706933</v>
       </c>
       <c r="AE3" t="n">
-        <v>69119.49029569965</v>
+        <v>93207.83835658725</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.715253209348476e-06</v>
+        <v>1.315973263259844e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.618827160493828</v>
       </c>
       <c r="AH3" t="n">
-        <v>62522.8231517071</v>
+        <v>84312.21308188009</v>
       </c>
     </row>
   </sheetData>
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.652856886772</v>
+        <v>149.1799763568199</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.346073387018</v>
+        <v>204.1146250073778</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.8519919971508</v>
+        <v>184.6342116734072</v>
       </c>
       <c r="AD2" t="n">
-        <v>118652.856886772</v>
+        <v>149179.9763568199</v>
       </c>
       <c r="AE2" t="n">
-        <v>162346.0733870179</v>
+        <v>204114.6250073778</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.723786191135872e-06</v>
+        <v>6.40670416181271e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.578703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>146851.9919971508</v>
+        <v>184634.2116734072</v>
       </c>
     </row>
     <row r="3">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.32203672095775</v>
+        <v>108.5881983549691</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.8461071348244</v>
+        <v>148.5751635624151</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.3127242784849</v>
+        <v>134.3953584786103</v>
       </c>
       <c r="AD3" t="n">
-        <v>88322.03672095775</v>
+        <v>108588.1983549691</v>
       </c>
       <c r="AE3" t="n">
-        <v>120846.1071348244</v>
+        <v>148575.1635624151</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.784356162984494e-06</v>
+        <v>8.231394867393618e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.340277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>109312.724278485</v>
+        <v>134395.3584786103</v>
       </c>
     </row>
     <row r="4">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.41462086615027</v>
+        <v>103.6807825001616</v>
       </c>
       <c r="AB4" t="n">
-        <v>114.1315642623725</v>
+        <v>141.8606206899632</v>
       </c>
       <c r="AC4" t="n">
-        <v>103.2390079538576</v>
+        <v>128.3216421539829</v>
       </c>
       <c r="AD4" t="n">
-        <v>83414.62086615028</v>
+        <v>103680.7825001616</v>
       </c>
       <c r="AE4" t="n">
-        <v>114131.5642623725</v>
+        <v>141860.6206899632</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.167976888409483e-06</v>
+        <v>8.891407116214005e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.020061728395062</v>
       </c>
       <c r="AH4" t="n">
-        <v>103239.0079538576</v>
+        <v>128321.6421539829</v>
       </c>
     </row>
     <row r="5">
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>70.75505980947241</v>
+        <v>91.10647278950431</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.81019432421768</v>
+        <v>124.6558954044576</v>
       </c>
       <c r="AC5" t="n">
-        <v>87.57076525189937</v>
+        <v>112.758911702737</v>
       </c>
       <c r="AD5" t="n">
-        <v>70755.05980947241</v>
+        <v>91106.4727895043</v>
       </c>
       <c r="AE5" t="n">
-        <v>96810.19432421768</v>
+        <v>124655.8954044576</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.362237039614167e-06</v>
+        <v>9.225628055686841e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.873456790123456</v>
       </c>
       <c r="AH5" t="n">
-        <v>87570.76525189937</v>
+        <v>112758.911702737</v>
       </c>
     </row>
     <row r="6">
@@ -8342,28 +8342,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>69.52314390504002</v>
+        <v>89.87455688507191</v>
       </c>
       <c r="AB6" t="n">
-        <v>95.12463263548014</v>
+        <v>122.9703337157201</v>
       </c>
       <c r="AC6" t="n">
-        <v>86.04607120503371</v>
+        <v>111.2342176558713</v>
       </c>
       <c r="AD6" t="n">
-        <v>69523.14390504002</v>
+        <v>89874.55688507191</v>
       </c>
       <c r="AE6" t="n">
-        <v>95124.63263548014</v>
+        <v>122970.3337157201</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.459044066184569e-06</v>
+        <v>9.392182725634778e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.804012345679012</v>
       </c>
       <c r="AH6" t="n">
-        <v>86046.07120503372</v>
+        <v>111234.2176558713</v>
       </c>
     </row>
     <row r="7">
@@ -8448,28 +8448,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>68.18299193048037</v>
+        <v>88.53440491051227</v>
       </c>
       <c r="AB7" t="n">
-        <v>93.29097758055612</v>
+        <v>121.1366786607961</v>
       </c>
       <c r="AC7" t="n">
-        <v>84.38741761500005</v>
+        <v>109.5755640658377</v>
       </c>
       <c r="AD7" t="n">
-        <v>68182.99193048036</v>
+        <v>88534.40491051227</v>
       </c>
       <c r="AE7" t="n">
-        <v>93290.97758055612</v>
+        <v>121136.6786607961</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.53463753965779e-06</v>
+        <v>9.522239876139175e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.753858024691358</v>
       </c>
       <c r="AH7" t="n">
-        <v>84387.41761500004</v>
+        <v>109575.5640658377</v>
       </c>
     </row>
     <row r="8">
@@ -8554,28 +8554,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>67.04902958723255</v>
+        <v>87.40044256726446</v>
       </c>
       <c r="AB8" t="n">
-        <v>91.73944027563741</v>
+        <v>119.5851413558773</v>
       </c>
       <c r="AC8" t="n">
-        <v>82.98395685286599</v>
+        <v>108.1721033037036</v>
       </c>
       <c r="AD8" t="n">
-        <v>67049.02958723255</v>
+        <v>87400.44256726446</v>
       </c>
       <c r="AE8" t="n">
-        <v>91739.4402756374</v>
+        <v>119585.1413558773</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.606031375715829e-06</v>
+        <v>9.645071629393326e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.703703703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>82983.95685286599</v>
+        <v>108172.1033037036</v>
       </c>
     </row>
     <row r="9">
@@ -8660,28 +8660,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>65.9477051285034</v>
+        <v>86.2991181085353</v>
       </c>
       <c r="AB9" t="n">
-        <v>90.23255956419889</v>
+        <v>118.0782606444388</v>
       </c>
       <c r="AC9" t="n">
-        <v>81.62089072160633</v>
+        <v>106.8090371724439</v>
       </c>
       <c r="AD9" t="n">
-        <v>65947.7051285034</v>
+        <v>86299.1181085353</v>
       </c>
       <c r="AE9" t="n">
-        <v>90232.55956419889</v>
+        <v>118078.2606444388</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.646250980191965e-06</v>
+        <v>9.714268703059127e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.680555555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>81620.89072160632</v>
+        <v>106809.0371724439</v>
       </c>
     </row>
     <row r="10">
@@ -8766,28 +8766,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>65.57121330665821</v>
+        <v>85.92262628669009</v>
       </c>
       <c r="AB10" t="n">
-        <v>89.71742684390362</v>
+        <v>117.5631279241435</v>
       </c>
       <c r="AC10" t="n">
-        <v>81.15492154514256</v>
+        <v>106.3430679959802</v>
       </c>
       <c r="AD10" t="n">
-        <v>65571.2133066582</v>
+        <v>85922.62628669009</v>
       </c>
       <c r="AE10" t="n">
-        <v>89717.42684390362</v>
+        <v>117563.1279241435</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.677802102311129e-06</v>
+        <v>9.768551815734039e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.657407407407408</v>
       </c>
       <c r="AH10" t="n">
-        <v>81154.92154514256</v>
+        <v>106343.0679959802</v>
       </c>
     </row>
     <row r="11">
@@ -8872,28 +8872,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>65.73807256396063</v>
+        <v>86.08948554399251</v>
       </c>
       <c r="AB11" t="n">
-        <v>89.94573104105558</v>
+        <v>117.7914321212955</v>
       </c>
       <c r="AC11" t="n">
-        <v>81.36143671014536</v>
+        <v>106.549583160983</v>
       </c>
       <c r="AD11" t="n">
-        <v>65738.07256396062</v>
+        <v>86089.48554399252</v>
       </c>
       <c r="AE11" t="n">
-        <v>89945.73104105558</v>
+        <v>117791.4321212955</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.678502041880325e-06</v>
+        <v>9.769756048609078e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.657407407407408</v>
       </c>
       <c r="AH11" t="n">
-        <v>81361.43671014535</v>
+        <v>106549.583160983</v>
       </c>
     </row>
   </sheetData>
@@ -9169,28 +9169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.09043560083199</v>
+        <v>66.32538656667431</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.16769970620591</v>
+        <v>90.74931997003318</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.75730871671873</v>
+        <v>82.08833223958574</v>
       </c>
       <c r="AD2" t="n">
-        <v>49090.43560083199</v>
+        <v>66325.38656667431</v>
       </c>
       <c r="AE2" t="n">
-        <v>67167.69970620591</v>
+        <v>90749.31997003319</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.724453700382452e-06</v>
+        <v>1.348024588747918e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.695987654320988</v>
       </c>
       <c r="AH2" t="n">
-        <v>60757.30871671873</v>
+        <v>82088.33223958574</v>
       </c>
     </row>
     <row r="3">
@@ -9275,28 +9275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.75464588800365</v>
+        <v>65.98959685384598</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.7082574071178</v>
+        <v>90.28987767094507</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.34171494582413</v>
+        <v>81.67273846869114</v>
       </c>
       <c r="AD3" t="n">
-        <v>48754.64588800365</v>
+        <v>65989.59685384599</v>
       </c>
       <c r="AE3" t="n">
-        <v>66708.2574071178</v>
+        <v>90289.87767094508</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.82033322420546e-06</v>
+        <v>1.367245176981502e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.645833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>60341.71494582413</v>
+        <v>81672.73846869114</v>
       </c>
     </row>
   </sheetData>
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.2460003797902</v>
+        <v>120.603414758163</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.8468032090095</v>
+        <v>165.0149127191938</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.9315995343633</v>
+        <v>149.2661210492042</v>
       </c>
       <c r="AD2" t="n">
-        <v>91246.0003797902</v>
+        <v>120603.414758163</v>
       </c>
       <c r="AE2" t="n">
-        <v>124846.8032090095</v>
+        <v>165014.9127191938</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.381430209575311e-06</v>
+        <v>7.759838471653753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.930555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>112931.5995343633</v>
+        <v>149266.1210492042</v>
       </c>
     </row>
     <row r="3">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.64972274409587</v>
+        <v>98.19297488670493</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.6120204393118</v>
+        <v>134.3519602082505</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.34168024303054</v>
+        <v>121.5295976901714</v>
       </c>
       <c r="AD3" t="n">
-        <v>78649.72274409587</v>
+        <v>98192.97488670493</v>
       </c>
       <c r="AE3" t="n">
-        <v>107612.0204393118</v>
+        <v>134351.9602082505</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.339967775642379e-06</v>
+        <v>9.457479727113476e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.043209876543211</v>
       </c>
       <c r="AH3" t="n">
-        <v>97341.68024303054</v>
+        <v>121529.5976901714</v>
       </c>
     </row>
     <row r="4">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.49746053622975</v>
+        <v>85.1259640248594</v>
       </c>
       <c r="AB4" t="n">
-        <v>89.6165150496609</v>
+        <v>116.4730994712488</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.06364063091175</v>
+        <v>105.3570703287648</v>
       </c>
       <c r="AD4" t="n">
-        <v>65497.46053622976</v>
+        <v>85125.96402485939</v>
       </c>
       <c r="AE4" t="n">
-        <v>89616.5150496609</v>
+        <v>116473.0994712488</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.644814516170367e-06</v>
+        <v>9.997385956804767e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.82716049382716</v>
       </c>
       <c r="AH4" t="n">
-        <v>81063.64063091174</v>
+        <v>105357.0703287649</v>
       </c>
     </row>
     <row r="5">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>63.40215604981732</v>
+        <v>83.03065953844695</v>
       </c>
       <c r="AB5" t="n">
-        <v>86.74962701304285</v>
+        <v>113.6062114346308</v>
       </c>
       <c r="AC5" t="n">
-        <v>78.47036436480499</v>
+        <v>102.7637940626581</v>
       </c>
       <c r="AD5" t="n">
-        <v>63402.15604981732</v>
+        <v>83030.65953844695</v>
       </c>
       <c r="AE5" t="n">
-        <v>86749.62701304286</v>
+        <v>113606.2114346308</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.838268488859445e-06</v>
+        <v>1.03400073174021e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.699845679012346</v>
       </c>
       <c r="AH5" t="n">
-        <v>78470.36436480499</v>
+        <v>102763.7940626581</v>
       </c>
     </row>
     <row r="6">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>61.74743559491294</v>
+        <v>81.37593908354256</v>
       </c>
       <c r="AB6" t="n">
-        <v>84.48556548552951</v>
+        <v>111.3421499071174</v>
       </c>
       <c r="AC6" t="n">
-        <v>76.42238169184647</v>
+        <v>100.7158113896996</v>
       </c>
       <c r="AD6" t="n">
-        <v>61747.43559491294</v>
+        <v>81375.93908354256</v>
       </c>
       <c r="AE6" t="n">
-        <v>84485.5654855295</v>
+        <v>111342.1499071174</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.958281601546189e-06</v>
+        <v>1.055255945777267e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.622685185185186</v>
       </c>
       <c r="AH6" t="n">
-        <v>76422.38169184647</v>
+        <v>100715.8113896996</v>
       </c>
     </row>
     <row r="7">
@@ -10102,28 +10102,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>61.11251524827379</v>
+        <v>80.74101873690343</v>
       </c>
       <c r="AB7" t="n">
-        <v>83.61683945654947</v>
+        <v>110.4734238781374</v>
       </c>
       <c r="AC7" t="n">
-        <v>75.63656565580739</v>
+        <v>99.92999535366047</v>
       </c>
       <c r="AD7" t="n">
-        <v>61112.51524827379</v>
+        <v>80741.01873690342</v>
       </c>
       <c r="AE7" t="n">
-        <v>83616.83945654947</v>
+        <v>110473.4238781374</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.9834149446415e-06</v>
+        <v>1.059707247597528e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.611111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>75636.56565580738</v>
+        <v>99929.99535366047</v>
       </c>
     </row>
     <row r="8">
@@ -10208,28 +10208,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>61.27516857821328</v>
+        <v>80.9036720668429</v>
       </c>
       <c r="AB8" t="n">
-        <v>83.83938891833104</v>
+        <v>110.695973339919</v>
       </c>
       <c r="AC8" t="n">
-        <v>75.83787530930671</v>
+        <v>100.1313050071598</v>
       </c>
       <c r="AD8" t="n">
-        <v>61275.16857821328</v>
+        <v>80903.6720668429</v>
       </c>
       <c r="AE8" t="n">
-        <v>83839.38891833104</v>
+        <v>110695.973339919</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.978936843421846e-06</v>
+        <v>1.058914142596145e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.611111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>75837.87530930671</v>
+        <v>100131.3050071598</v>
       </c>
     </row>
   </sheetData>
@@ -10505,28 +10505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.4414934725142</v>
+        <v>129.4459663687162</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.7426795869635</v>
+        <v>177.1136819385914</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.4514484123952</v>
+        <v>160.2102007150355</v>
       </c>
       <c r="AD2" t="n">
-        <v>109441.4934725142</v>
+        <v>129445.9663687162</v>
       </c>
       <c r="AE2" t="n">
-        <v>149742.6795869635</v>
+        <v>177113.6819385914</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.039377543673955e-06</v>
+        <v>7.044321720934162e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.239197530864198</v>
       </c>
       <c r="AH2" t="n">
-        <v>135451.4484123952</v>
+        <v>160210.2007150355</v>
       </c>
     </row>
     <row r="3">
@@ -10611,28 +10611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.89756305141331</v>
+        <v>103.8166950930437</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.7923470661546</v>
+        <v>142.0465822955848</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.8367265742614</v>
+        <v>128.4898558449629</v>
       </c>
       <c r="AD3" t="n">
-        <v>83897.56305141331</v>
+        <v>103816.6950930437</v>
       </c>
       <c r="AE3" t="n">
-        <v>114792.3470661546</v>
+        <v>142046.5822955848</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.014203021763037e-06</v>
+        <v>8.744332233736387e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.220679012345679</v>
       </c>
       <c r="AH3" t="n">
-        <v>103836.7265742614</v>
+        <v>128489.8558449629</v>
       </c>
     </row>
     <row r="4">
@@ -10717,28 +10717,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>69.55714131181699</v>
+        <v>89.56152469946801</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.1711493872921</v>
+        <v>122.5420292693716</v>
       </c>
       <c r="AC4" t="n">
-        <v>86.08814846333942</v>
+        <v>110.8467899847532</v>
       </c>
       <c r="AD4" t="n">
-        <v>69557.14131181699</v>
+        <v>89561.52469946801</v>
       </c>
       <c r="AE4" t="n">
-        <v>95171.1493872921</v>
+        <v>122542.0292693716</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.375690291150071e-06</v>
+        <v>9.374734466766626e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.935185185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>86088.14846333943</v>
+        <v>110846.7899847532</v>
       </c>
     </row>
     <row r="5">
@@ -10823,28 +10823,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>67.22449114087148</v>
+        <v>87.22887452852248</v>
       </c>
       <c r="AB5" t="n">
-        <v>91.97951451414349</v>
+        <v>119.350394396223</v>
       </c>
       <c r="AC5" t="n">
-        <v>83.20111874299543</v>
+        <v>107.9597602644092</v>
       </c>
       <c r="AD5" t="n">
-        <v>67224.49114087148</v>
+        <v>87228.87452852249</v>
       </c>
       <c r="AE5" t="n">
-        <v>91979.51451414349</v>
+        <v>119350.394396223</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.583335686674166e-06</v>
+        <v>9.736849905129921e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.78858024691358</v>
       </c>
       <c r="AH5" t="n">
-        <v>83201.11874299543</v>
+        <v>107959.7602644092</v>
       </c>
     </row>
     <row r="6">
@@ -10929,28 +10929,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>65.70879574516209</v>
+        <v>85.71317913281311</v>
       </c>
       <c r="AB6" t="n">
-        <v>89.90567320597336</v>
+        <v>117.2765530880529</v>
       </c>
       <c r="AC6" t="n">
-        <v>81.32520193862184</v>
+        <v>106.0838434600356</v>
       </c>
       <c r="AD6" t="n">
-        <v>65708.79574516209</v>
+        <v>85713.17913281311</v>
       </c>
       <c r="AE6" t="n">
-        <v>89905.67320597336</v>
+        <v>117276.5530880529</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.680686605072282e-06</v>
+        <v>9.906621406211497e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.722993827160495</v>
       </c>
       <c r="AH6" t="n">
-        <v>81325.20193862185</v>
+        <v>106083.8434600356</v>
       </c>
     </row>
     <row r="7">
@@ -11035,28 +11035,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>64.14642278857572</v>
+        <v>84.15080617622672</v>
       </c>
       <c r="AB7" t="n">
-        <v>87.76796559974272</v>
+        <v>115.1388454818223</v>
       </c>
       <c r="AC7" t="n">
-        <v>79.39151414603772</v>
+        <v>104.1501556674515</v>
       </c>
       <c r="AD7" t="n">
-        <v>64146.42278857571</v>
+        <v>84150.80617622672</v>
       </c>
       <c r="AE7" t="n">
-        <v>87767.96559974272</v>
+        <v>115138.8454818223</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.789993861617323e-06</v>
+        <v>1.009724371700337e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.65354938271605</v>
       </c>
       <c r="AH7" t="n">
-        <v>79391.51414603772</v>
+        <v>104150.1556674515</v>
       </c>
     </row>
     <row r="8">
@@ -11141,28 +11141,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>63.33880181669591</v>
+        <v>83.34318520434692</v>
       </c>
       <c r="AB8" t="n">
-        <v>86.66294295629467</v>
+        <v>114.0338228383742</v>
       </c>
       <c r="AC8" t="n">
-        <v>78.39195331277098</v>
+        <v>103.1505948341847</v>
       </c>
       <c r="AD8" t="n">
-        <v>63338.80181669591</v>
+        <v>83343.18520434693</v>
       </c>
       <c r="AE8" t="n">
-        <v>86662.94295629468</v>
+        <v>114033.8228383742</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.827069478990351e-06</v>
+        <v>1.016190035628853e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.630401234567902</v>
       </c>
       <c r="AH8" t="n">
-        <v>78391.95331277097</v>
+        <v>103150.5948341847</v>
       </c>
     </row>
     <row r="9">
@@ -11247,28 +11247,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>63.43953873612625</v>
+        <v>83.44392212377726</v>
       </c>
       <c r="AB9" t="n">
-        <v>86.80077565365843</v>
+        <v>114.171655535738</v>
       </c>
       <c r="AC9" t="n">
-        <v>78.51663145094778</v>
+        <v>103.2752729723615</v>
       </c>
       <c r="AD9" t="n">
-        <v>63439.53873612625</v>
+        <v>83443.92212377726</v>
       </c>
       <c r="AE9" t="n">
-        <v>86800.77565365843</v>
+        <v>114171.655535738</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.819829861396801e-06</v>
+        <v>1.014927509536303e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.63425925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>78516.63145094778</v>
+        <v>103275.2729723615</v>
       </c>
     </row>
   </sheetData>
@@ -11544,28 +11544,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.2803262894471</v>
+        <v>159.2926022609947</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.5188017577252</v>
+        <v>217.9511659070311</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.7675336602023</v>
+        <v>197.150212529309</v>
       </c>
       <c r="AD2" t="n">
-        <v>128280.3262894471</v>
+        <v>159292.6022609947</v>
       </c>
       <c r="AE2" t="n">
-        <v>175518.8017577252</v>
+        <v>217951.165907031</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.447549148984107e-06</v>
+        <v>5.860605062199776e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.925925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>158767.5336602023</v>
+        <v>197150.212529309</v>
       </c>
     </row>
     <row r="3">
@@ -11650,28 +11650,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.34096705438034</v>
+        <v>114.1011585566504</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.713229036589</v>
+        <v>156.1182389249905</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.5244577040135</v>
+        <v>141.2185333153568</v>
       </c>
       <c r="AD3" t="n">
-        <v>93340.96705438034</v>
+        <v>114101.1585566504</v>
       </c>
       <c r="AE3" t="n">
-        <v>127713.229036589</v>
+        <v>156118.2389249906</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.536806124745685e-06</v>
+        <v>7.712269728986561e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.502314814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>115524.4577040135</v>
+        <v>141218.5333153568</v>
       </c>
     </row>
     <row r="4">
@@ -11756,28 +11756,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.5296196840999</v>
+        <v>108.1192189857777</v>
       </c>
       <c r="AB4" t="n">
-        <v>119.7618871860237</v>
+        <v>147.9334852995783</v>
       </c>
       <c r="AC4" t="n">
-        <v>108.3319807598852</v>
+        <v>133.8149210885774</v>
       </c>
       <c r="AD4" t="n">
-        <v>87529.6196840999</v>
+        <v>108119.2189857778</v>
       </c>
       <c r="AE4" t="n">
-        <v>119761.8871860237</v>
+        <v>147933.4852995783</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.943636405593649e-06</v>
+        <v>8.403854243190315e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.131944444444446</v>
       </c>
       <c r="AH4" t="n">
-        <v>108331.9807598852</v>
+        <v>133814.9210885774</v>
       </c>
     </row>
     <row r="5">
@@ -11862,28 +11862,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>74.62222378681858</v>
+        <v>105.463818049223</v>
       </c>
       <c r="AB5" t="n">
-        <v>102.1014186852539</v>
+        <v>144.3002485901645</v>
       </c>
       <c r="AC5" t="n">
-        <v>92.35700258619998</v>
+        <v>130.5284353914291</v>
       </c>
       <c r="AD5" t="n">
-        <v>74622.22378681858</v>
+        <v>105463.818049223</v>
       </c>
       <c r="AE5" t="n">
-        <v>102101.4186852539</v>
+        <v>144300.2485901645</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.128443758936558e-06</v>
+        <v>8.71801449551111e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.981481481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>92357.00258619999</v>
+        <v>130528.4353914291</v>
       </c>
     </row>
     <row r="6">
@@ -11968,28 +11968,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>72.73491563421267</v>
+        <v>93.40976628191112</v>
       </c>
       <c r="AB6" t="n">
-        <v>99.51912040870043</v>
+        <v>127.8073631749043</v>
       </c>
       <c r="AC6" t="n">
-        <v>90.02115523288158</v>
+        <v>115.6096078122861</v>
       </c>
       <c r="AD6" t="n">
-        <v>72734.91563421267</v>
+        <v>93409.76628191111</v>
       </c>
       <c r="AE6" t="n">
-        <v>99519.12040870043</v>
+        <v>127807.3631749043</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.271853418119009e-06</v>
+        <v>8.961801411448388e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.873456790123456</v>
       </c>
       <c r="AH6" t="n">
-        <v>90021.15523288159</v>
+        <v>115609.6078122861</v>
       </c>
     </row>
     <row r="7">
@@ -12074,28 +12074,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>71.66255080492259</v>
+        <v>92.33740145262104</v>
       </c>
       <c r="AB7" t="n">
-        <v>98.05186353986913</v>
+        <v>126.340106306073</v>
       </c>
       <c r="AC7" t="n">
-        <v>88.69393130030315</v>
+        <v>114.2823838797076</v>
       </c>
       <c r="AD7" t="n">
-        <v>71662.55080492259</v>
+        <v>92337.40145262104</v>
       </c>
       <c r="AE7" t="n">
-        <v>98051.86353986913</v>
+        <v>126340.106306073</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.331567739107493e-06</v>
+        <v>9.063311799479855e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.831018518518518</v>
       </c>
       <c r="AH7" t="n">
-        <v>88693.93130030314</v>
+        <v>114282.3838797076</v>
       </c>
     </row>
     <row r="8">
@@ -12180,28 +12180,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>70.49397055193738</v>
+        <v>91.16882119963583</v>
       </c>
       <c r="AB8" t="n">
-        <v>96.45296048361332</v>
+        <v>124.7412032498172</v>
       </c>
       <c r="AC8" t="n">
-        <v>87.24762530766135</v>
+        <v>112.8360778870658</v>
       </c>
       <c r="AD8" t="n">
-        <v>70493.97055193738</v>
+        <v>91168.82119963583</v>
       </c>
       <c r="AE8" t="n">
-        <v>96452.96048361332</v>
+        <v>124741.2032498172</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.405204814014392e-06</v>
+        <v>9.188489946422916e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.777006172839505</v>
       </c>
       <c r="AH8" t="n">
-        <v>87247.62530766135</v>
+        <v>112836.0778870658</v>
       </c>
     </row>
     <row r="9">
@@ -12286,28 +12286,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>69.21818308139612</v>
+        <v>89.89303372909454</v>
       </c>
       <c r="AB9" t="n">
-        <v>94.70737178264872</v>
+        <v>122.9956145488526</v>
       </c>
       <c r="AC9" t="n">
-        <v>85.66863314236714</v>
+        <v>111.2570857217716</v>
       </c>
       <c r="AD9" t="n">
-        <v>69218.18308139611</v>
+        <v>89893.03372909455</v>
       </c>
       <c r="AE9" t="n">
-        <v>94707.37178264873</v>
+        <v>122995.6145488526</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.484400402843092e-06</v>
+        <v>9.323117198634863e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.722993827160495</v>
       </c>
       <c r="AH9" t="n">
-        <v>85668.63314236714</v>
+        <v>111257.0857217716</v>
       </c>
     </row>
     <row r="10">
@@ -12392,28 +12392,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>68.46903207233539</v>
+        <v>89.14388272003383</v>
       </c>
       <c r="AB10" t="n">
-        <v>93.68235032184242</v>
+        <v>121.9705930880463</v>
       </c>
       <c r="AC10" t="n">
-        <v>84.7414382911532</v>
+        <v>110.3298908705577</v>
       </c>
       <c r="AD10" t="n">
-        <v>68469.03207233539</v>
+        <v>89143.88272003383</v>
       </c>
       <c r="AE10" t="n">
-        <v>93682.35032184242</v>
+        <v>121970.5930880463</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.508169667137267e-06</v>
+        <v>9.363523372594199e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.707561728395062</v>
       </c>
       <c r="AH10" t="n">
-        <v>84741.4382911532</v>
+        <v>110329.8908705577</v>
       </c>
     </row>
     <row r="11">
@@ -12498,28 +12498,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>68.10188586156465</v>
+        <v>88.7767365092631</v>
       </c>
       <c r="AB11" t="n">
-        <v>93.18000467891848</v>
+        <v>121.4682474451224</v>
       </c>
       <c r="AC11" t="n">
-        <v>84.28703581134323</v>
+        <v>109.8754883907477</v>
       </c>
       <c r="AD11" t="n">
-        <v>68101.88586156466</v>
+        <v>88776.73650926311</v>
       </c>
       <c r="AE11" t="n">
-        <v>93180.00467891849</v>
+        <v>121468.2474451224</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.517433857006934e-06</v>
+        <v>9.379271881375675e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.699845679012346</v>
       </c>
       <c r="AH11" t="n">
-        <v>84287.03581134323</v>
+        <v>109875.4883907477</v>
       </c>
     </row>
     <row r="12">
@@ -12604,28 +12604,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>67.83108308100103</v>
+        <v>88.50593372869946</v>
       </c>
       <c r="AB12" t="n">
-        <v>92.809480367576</v>
+        <v>121.0977231337799</v>
       </c>
       <c r="AC12" t="n">
-        <v>83.95187382024102</v>
+        <v>109.5403263996455</v>
       </c>
       <c r="AD12" t="n">
-        <v>67831.08308100102</v>
+        <v>88505.93372869946</v>
       </c>
       <c r="AE12" t="n">
-        <v>92809.480367576</v>
+        <v>121097.7231337799</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.517275042323454e-06</v>
+        <v>9.379001906939421e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.703703703703704</v>
       </c>
       <c r="AH12" t="n">
-        <v>83951.87382024102</v>
+        <v>109540.3263996455</v>
       </c>
     </row>
   </sheetData>
@@ -12901,28 +12901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.48725897766172</v>
+        <v>112.2263572065517</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.2309509311097</v>
+        <v>153.5530530073886</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.3289092984206</v>
+        <v>138.8981651414689</v>
       </c>
       <c r="AD2" t="n">
-        <v>83487.25897766172</v>
+        <v>112226.3572065517</v>
       </c>
       <c r="AE2" t="n">
-        <v>114230.9509311097</v>
+        <v>153553.0530073886</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.772054195190407e-06</v>
+        <v>8.605142972558507e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.62962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>103328.9092984206</v>
+        <v>138898.1651414689</v>
       </c>
     </row>
     <row r="3">
@@ -13007,28 +13007,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.24081123583828</v>
+        <v>83.45710395814601</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.89711203741172</v>
+        <v>114.1896915030628</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.50833502895379</v>
+        <v>103.2915876122785</v>
       </c>
       <c r="AD3" t="n">
-        <v>64240.81123583828</v>
+        <v>83457.10395814601</v>
       </c>
       <c r="AE3" t="n">
-        <v>87897.11203741172</v>
+        <v>114189.6915030628</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.653742236270485e-06</v>
+        <v>1.01950351532332e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.908179012345679</v>
       </c>
       <c r="AH3" t="n">
-        <v>79508.33502895379</v>
+        <v>103291.5876122785</v>
       </c>
     </row>
     <row r="4">
@@ -13113,28 +13113,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.13374555294275</v>
+        <v>80.35003827525047</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.64588769601247</v>
+        <v>109.9384671616635</v>
       </c>
       <c r="AC4" t="n">
-        <v>75.66284157206549</v>
+        <v>99.4460941553902</v>
       </c>
       <c r="AD4" t="n">
-        <v>61133.74555294275</v>
+        <v>80350.03827525047</v>
       </c>
       <c r="AE4" t="n">
-        <v>83645.88769601246</v>
+        <v>109938.4671616635</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.968160381481892e-06</v>
+        <v>1.076200547294116e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.703703703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>75662.84157206549</v>
+        <v>99446.09415539019</v>
       </c>
     </row>
     <row r="5">
@@ -13219,28 +13219,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>59.43830684979673</v>
+        <v>78.65459957210444</v>
       </c>
       <c r="AB5" t="n">
-        <v>81.32611366489259</v>
+        <v>107.6186931305436</v>
       </c>
       <c r="AC5" t="n">
-        <v>73.56446351865166</v>
+        <v>97.34771610197637</v>
       </c>
       <c r="AD5" t="n">
-        <v>59438.30684979673</v>
+        <v>78654.59957210445</v>
       </c>
       <c r="AE5" t="n">
-        <v>81326.11366489259</v>
+        <v>107618.6931305436</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.096791192801533e-06</v>
+        <v>1.099395726493826e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.622685185185186</v>
       </c>
       <c r="AH5" t="n">
-        <v>73564.46351865167</v>
+        <v>97347.71610197637</v>
       </c>
     </row>
     <row r="6">
@@ -13325,28 +13325,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>58.73029451734321</v>
+        <v>77.94658723965092</v>
       </c>
       <c r="AB6" t="n">
-        <v>80.35737995633055</v>
+        <v>106.6499594219816</v>
       </c>
       <c r="AC6" t="n">
-        <v>72.68818439560816</v>
+        <v>96.47143697893287</v>
       </c>
       <c r="AD6" t="n">
-        <v>58730.29451734321</v>
+        <v>77946.58723965092</v>
       </c>
       <c r="AE6" t="n">
-        <v>80357.37995633055</v>
+        <v>106649.9594219816</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.174049859083898e-06</v>
+        <v>1.113327292273171e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.580246913580247</v>
       </c>
       <c r="AH6" t="n">
-        <v>72688.18439560816</v>
+        <v>96471.43697893288</v>
       </c>
     </row>
   </sheetData>
@@ -13622,28 +13622,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.6695149208836</v>
+        <v>91.08770457381526</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.42963626744779</v>
+        <v>124.6302159037566</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.9402113324783</v>
+        <v>112.7356830175415</v>
       </c>
       <c r="AD2" t="n">
-        <v>72669.51492088359</v>
+        <v>91087.70457381525</v>
       </c>
       <c r="AE2" t="n">
-        <v>99429.63626744779</v>
+        <v>124630.2159037566</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.463967542487108e-06</v>
+        <v>1.019401691673592e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.212962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>89940.2113324783</v>
+        <v>112735.6830175415</v>
       </c>
     </row>
     <row r="3">
@@ -13728,28 +13728,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.10292229063777</v>
+        <v>75.60636328959002</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.13073748115765</v>
+        <v>103.4479617701157</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.67404955315273</v>
+        <v>93.57503348892814</v>
       </c>
       <c r="AD3" t="n">
-        <v>57102.92229063777</v>
+        <v>75606.36328959002</v>
       </c>
       <c r="AE3" t="n">
-        <v>78130.73748115766</v>
+        <v>103447.9617701157</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.20694160895944e-06</v>
+        <v>1.158016903850851e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.707561728395062</v>
       </c>
       <c r="AH3" t="n">
-        <v>70674.04955315273</v>
+        <v>93575.03348892814</v>
       </c>
     </row>
     <row r="4">
@@ -13834,28 +13834,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.99472991334835</v>
+        <v>73.49817091230059</v>
       </c>
       <c r="AB4" t="n">
-        <v>75.24621566366814</v>
+        <v>100.5634399526262</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.06482244947169</v>
+        <v>90.96580638524709</v>
       </c>
       <c r="AD4" t="n">
-        <v>54994.72991334835</v>
+        <v>73498.1709123006</v>
       </c>
       <c r="AE4" t="n">
-        <v>75246.21566366813</v>
+        <v>100563.4399526262</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.422066426985717e-06</v>
+        <v>1.198152318585971e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.584104938271605</v>
       </c>
       <c r="AH4" t="n">
-        <v>68064.82244947169</v>
+        <v>90965.8063852471</v>
       </c>
     </row>
     <row r="5">
@@ -13940,28 +13940,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>54.91600306241943</v>
+        <v>73.41944406137168</v>
       </c>
       <c r="AB5" t="n">
-        <v>75.1384981130437</v>
+        <v>100.4557224020017</v>
       </c>
       <c r="AC5" t="n">
-        <v>67.96738531069626</v>
+        <v>90.86836924647169</v>
       </c>
       <c r="AD5" t="n">
-        <v>54916.00306241943</v>
+        <v>73419.44406137167</v>
       </c>
       <c r="AE5" t="n">
-        <v>75138.49811304369</v>
+        <v>100455.7224020017</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.460306861914957e-06</v>
+        <v>1.205286761416036e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.560956790123457</v>
       </c>
       <c r="AH5" t="n">
-        <v>67967.38531069626</v>
+        <v>90868.36924647169</v>
       </c>
     </row>
   </sheetData>
@@ -25218,28 +25218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.48098118487297</v>
+        <v>74.41462647785814</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.27977022214559</v>
+        <v>101.8173748885875</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.90429741500044</v>
+        <v>92.10006753082935</v>
       </c>
       <c r="AD2" t="n">
-        <v>56480.98118487297</v>
+        <v>74414.62647785814</v>
       </c>
       <c r="AE2" t="n">
-        <v>77279.77022214558</v>
+        <v>101817.3748885875</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.012441057556755e-06</v>
+        <v>1.156214711668748e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.958333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>69904.29741500044</v>
+        <v>92100.06753082934</v>
       </c>
     </row>
     <row r="3">
@@ -25324,28 +25324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.23468525560789</v>
+        <v>70.16833054859305</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.46980079837293</v>
+        <v>96.00740546481479</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.6488233186875</v>
+        <v>86.84459343451641</v>
       </c>
       <c r="AD3" t="n">
-        <v>52234.68525560789</v>
+        <v>70168.33054859305</v>
       </c>
       <c r="AE3" t="n">
-        <v>71469.80079837293</v>
+        <v>96007.4054648148</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.616054938696931e-06</v>
+        <v>1.272291899430044e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.599537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>64648.82331868751</v>
+        <v>86844.59343451641</v>
       </c>
     </row>
     <row r="4">
@@ -25430,28 +25430,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.15859126571394</v>
+        <v>70.09223655869911</v>
       </c>
       <c r="AB4" t="n">
-        <v>71.36568564437019</v>
+        <v>95.90329031081205</v>
       </c>
       <c r="AC4" t="n">
-        <v>64.55464476885621</v>
+        <v>86.75041488468511</v>
       </c>
       <c r="AD4" t="n">
-        <v>52158.59126571394</v>
+        <v>70092.23655869911</v>
       </c>
       <c r="AE4" t="n">
-        <v>71365.68564437018</v>
+        <v>95903.29031081205</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.648515924432513e-06</v>
+        <v>1.278534267364042e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.580246913580247</v>
       </c>
       <c r="AH4" t="n">
-        <v>64554.64476885621</v>
+        <v>86750.41488468512</v>
       </c>
     </row>
   </sheetData>
@@ -25727,28 +25727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.6677714227824</v>
+        <v>63.47190492298745</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.85290369739983</v>
+        <v>86.8450604984173</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.75887218664663</v>
+        <v>78.55668981227706</v>
       </c>
       <c r="AD2" t="n">
-        <v>46667.7714227824</v>
+        <v>63471.90492298745</v>
       </c>
       <c r="AE2" t="n">
-        <v>63852.90369739983</v>
+        <v>86845.0604984173</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.812716536898092e-06</v>
+        <v>1.405190450564274e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>57758.87218664664</v>
+        <v>78556.68981227705</v>
       </c>
     </row>
   </sheetData>
@@ -26024,28 +26024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.2791469329495</v>
+        <v>125.0996883818751</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.0475734217646</v>
+        <v>171.1669126527462</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.2998751864694</v>
+        <v>154.8309827434864</v>
       </c>
       <c r="AD2" t="n">
-        <v>105279.1469329495</v>
+        <v>125099.6883818751</v>
       </c>
       <c r="AE2" t="n">
-        <v>144047.5734217646</v>
+        <v>171166.9126527462</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.20273023583588e-06</v>
+        <v>7.384031236003856e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.084876543209877</v>
       </c>
       <c r="AH2" t="n">
-        <v>130299.8751864694</v>
+        <v>154830.9827434864</v>
       </c>
     </row>
     <row r="3">
@@ -26130,28 +26130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.13182966891246</v>
+        <v>100.8670302632664</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.0081486366734</v>
+        <v>138.0107207454573</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.4136867317329</v>
+        <v>124.839171256811</v>
       </c>
       <c r="AD3" t="n">
-        <v>81131.82966891245</v>
+        <v>100867.0302632664</v>
       </c>
       <c r="AE3" t="n">
-        <v>111008.1486366734</v>
+        <v>138010.7207454573</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.183520545120193e-06</v>
+        <v>9.107241119420236e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.124228395061729</v>
       </c>
       <c r="AH3" t="n">
-        <v>100413.6867317329</v>
+        <v>124839.171256811</v>
       </c>
     </row>
     <row r="4">
@@ -26236,28 +26236,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.52025296694762</v>
+        <v>87.34070490732213</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.38418889267153</v>
+        <v>119.5034056541047</v>
       </c>
       <c r="AC4" t="n">
-        <v>83.56717156680094</v>
+        <v>108.0981683425913</v>
       </c>
       <c r="AD4" t="n">
-        <v>67520.25296694762</v>
+        <v>87340.70490732213</v>
       </c>
       <c r="AE4" t="n">
-        <v>92384.18889267153</v>
+        <v>119503.4056541047</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.508234924032688e-06</v>
+        <v>9.677751473909496e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.881172839506173</v>
       </c>
       <c r="AH4" t="n">
-        <v>83567.17156680094</v>
+        <v>108098.1683425913</v>
       </c>
     </row>
     <row r="5">
@@ -26342,28 +26342,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>65.28411793862918</v>
+        <v>85.10456987900369</v>
       </c>
       <c r="AB5" t="n">
-        <v>89.32461029561279</v>
+        <v>116.4438270570459</v>
       </c>
       <c r="AC5" t="n">
-        <v>80.79959485689901</v>
+        <v>105.3305916326894</v>
       </c>
       <c r="AD5" t="n">
-        <v>65284.11793862918</v>
+        <v>85104.56987900368</v>
       </c>
       <c r="AE5" t="n">
-        <v>89324.61029561279</v>
+        <v>116443.8270570459</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.714574238507108e-06</v>
+        <v>1.004028150981405e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.738425925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>80799.594856899</v>
+        <v>105330.5916326894</v>
       </c>
     </row>
     <row r="6">
@@ -26448,28 +26448,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>63.88890525717886</v>
+        <v>83.70935719755336</v>
       </c>
       <c r="AB6" t="n">
-        <v>87.41561875241408</v>
+        <v>114.5348355138472</v>
       </c>
       <c r="AC6" t="n">
-        <v>79.07279478729609</v>
+        <v>103.6037915630865</v>
       </c>
       <c r="AD6" t="n">
-        <v>63888.90525717886</v>
+        <v>83709.35719755336</v>
       </c>
       <c r="AE6" t="n">
-        <v>87415.61875241407</v>
+        <v>114534.8355138472</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.814558792232295e-06</v>
+        <v>1.021595042654095e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.676697530864198</v>
       </c>
       <c r="AH6" t="n">
-        <v>79072.79478729609</v>
+        <v>103603.7915630865</v>
       </c>
     </row>
     <row r="7">
@@ -26554,28 +26554,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>62.62328115298585</v>
+        <v>82.44373309336035</v>
       </c>
       <c r="AB7" t="n">
-        <v>85.68393601766324</v>
+        <v>112.8031527790964</v>
       </c>
       <c r="AC7" t="n">
-        <v>77.50638142231736</v>
+        <v>102.0373781981077</v>
       </c>
       <c r="AD7" t="n">
-        <v>62623.28115298584</v>
+        <v>82443.73309336035</v>
       </c>
       <c r="AE7" t="n">
-        <v>85683.93601766325</v>
+        <v>112803.1527790964</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.887511510933722e-06</v>
+        <v>1.034412547547687e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.630401234567902</v>
       </c>
       <c r="AH7" t="n">
-        <v>77506.38142231735</v>
+        <v>102037.3781981077</v>
       </c>
     </row>
     <row r="8">
@@ -26660,28 +26660,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>62.09307809706407</v>
+        <v>81.91353003743858</v>
       </c>
       <c r="AB8" t="n">
-        <v>84.95848880564346</v>
+        <v>112.0777055670766</v>
       </c>
       <c r="AC8" t="n">
-        <v>76.85016987404093</v>
+        <v>101.3811666498313</v>
       </c>
       <c r="AD8" t="n">
-        <v>62093.07809706406</v>
+        <v>81913.53003743857</v>
       </c>
       <c r="AE8" t="n">
-        <v>84958.48880564346</v>
+        <v>112077.7055670766</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.92191062886355e-06</v>
+        <v>1.040456336871089e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.607253086419753</v>
       </c>
       <c r="AH8" t="n">
-        <v>76850.16987404093</v>
+        <v>101381.1666498313</v>
       </c>
     </row>
   </sheetData>
@@ -26957,28 +26957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.6302759126519</v>
+        <v>154.4039962298981</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.156397686453</v>
+        <v>211.2623594652112</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.0123485038002</v>
+        <v>191.0997763864956</v>
       </c>
       <c r="AD2" t="n">
-        <v>123630.2759126519</v>
+        <v>154403.9962298981</v>
       </c>
       <c r="AE2" t="n">
-        <v>169156.397686453</v>
+        <v>211262.3594652112</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.576310024372758e-06</v>
+        <v>6.11509158912117e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.760030864197531</v>
       </c>
       <c r="AH2" t="n">
-        <v>153012.3485038002</v>
+        <v>191099.7763864956</v>
       </c>
     </row>
     <row r="3">
@@ -27063,28 +27063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.77896689251438</v>
+        <v>111.2095290913247</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.2077873876558</v>
+        <v>152.1617839208453</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.353570486135</v>
+        <v>137.6396768238864</v>
       </c>
       <c r="AD3" t="n">
-        <v>90778.96689251438</v>
+        <v>111209.5290913247</v>
       </c>
       <c r="AE3" t="n">
-        <v>124207.7873876558</v>
+        <v>152161.7839208453</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.654877172426846e-06</v>
+        <v>7.959321214186951e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.425154320987655</v>
       </c>
       <c r="AH3" t="n">
-        <v>112353.570486135</v>
+        <v>137639.6768238864</v>
       </c>
     </row>
     <row r="4">
@@ -27169,28 +27169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.42575087597353</v>
+        <v>105.8563130747838</v>
       </c>
       <c r="AB4" t="n">
-        <v>116.8832810666054</v>
+        <v>144.837277599795</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.7281047683542</v>
+        <v>131.0142111061056</v>
       </c>
       <c r="AD4" t="n">
-        <v>85425.75087597354</v>
+        <v>105856.3130747838</v>
       </c>
       <c r="AE4" t="n">
-        <v>116883.2810666054</v>
+        <v>144837.277599795</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.054362302390066e-06</v>
+        <v>8.642396266844197e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.074074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>105728.1047683542</v>
+        <v>131014.2111061056</v>
       </c>
     </row>
     <row r="5">
@@ -27275,28 +27275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>72.58002715294398</v>
+        <v>93.0958406977748</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.3071951554312</v>
+        <v>127.3778363412699</v>
       </c>
       <c r="AC5" t="n">
-        <v>89.82945582834535</v>
+        <v>115.2210744168089</v>
       </c>
       <c r="AD5" t="n">
-        <v>72580.02715294398</v>
+        <v>93095.84069777481</v>
       </c>
       <c r="AE5" t="n">
-        <v>99307.1951554312</v>
+        <v>127377.8363412699</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.249941339827964e-06</v>
+        <v>8.976814625066559e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.923611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>89829.45582834535</v>
+        <v>115221.0744168089</v>
       </c>
     </row>
     <row r="6">
@@ -27381,28 +27381,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>70.94762131356015</v>
+        <v>91.46343485839097</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.07366546932438</v>
+        <v>125.1443066551631</v>
       </c>
       <c r="AC6" t="n">
-        <v>87.80909108070126</v>
+        <v>113.2007096691649</v>
       </c>
       <c r="AD6" t="n">
-        <v>70947.62131356014</v>
+        <v>91463.43485839097</v>
       </c>
       <c r="AE6" t="n">
-        <v>97073.66546932438</v>
+        <v>125144.3066551631</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.378957315124744e-06</v>
+        <v>9.197417564974705e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.82716049382716</v>
       </c>
       <c r="AH6" t="n">
-        <v>87809.09108070127</v>
+        <v>113200.7096691648</v>
       </c>
     </row>
     <row r="7">
@@ -27487,28 +27487,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>69.80289590118869</v>
+        <v>90.31870944601954</v>
       </c>
       <c r="AB7" t="n">
-        <v>95.50740165839757</v>
+        <v>123.5780428442363</v>
       </c>
       <c r="AC7" t="n">
-        <v>86.39230928962375</v>
+        <v>111.7839278780873</v>
       </c>
       <c r="AD7" t="n">
-        <v>69802.89590118869</v>
+        <v>90318.70944601954</v>
       </c>
       <c r="AE7" t="n">
-        <v>95507.40165839758</v>
+        <v>123578.0428442363</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.453740675236779e-06</v>
+        <v>9.32528877672949e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.777006172839505</v>
       </c>
       <c r="AH7" t="n">
-        <v>86392.30928962375</v>
+        <v>111783.9278780873</v>
       </c>
     </row>
     <row r="8">
@@ -27593,28 +27593,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>68.46520718146634</v>
+        <v>88.98102072629716</v>
       </c>
       <c r="AB8" t="n">
-        <v>93.67711693741312</v>
+        <v>121.7477581232519</v>
       </c>
       <c r="AC8" t="n">
-        <v>84.73670437358869</v>
+        <v>110.1283229620523</v>
       </c>
       <c r="AD8" t="n">
-        <v>68465.20718146634</v>
+        <v>88981.02072629717</v>
       </c>
       <c r="AE8" t="n">
-        <v>93677.11693741311</v>
+        <v>121747.7581232519</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.528577413907066e-06</v>
+        <v>9.453251259870249e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.722993827160495</v>
       </c>
       <c r="AH8" t="n">
-        <v>84736.7043735887</v>
+        <v>110128.3229620523</v>
       </c>
     </row>
     <row r="9">
@@ -27699,28 +27699,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>67.74730332626429</v>
+        <v>88.26311687109512</v>
       </c>
       <c r="AB9" t="n">
-        <v>92.69484921104335</v>
+        <v>120.7654903968821</v>
       </c>
       <c r="AC9" t="n">
-        <v>83.84818290040197</v>
+        <v>109.2398014888655</v>
       </c>
       <c r="AD9" t="n">
-        <v>67747.30332626429</v>
+        <v>88263.11687109512</v>
       </c>
       <c r="AE9" t="n">
-        <v>92694.84921104334</v>
+        <v>120765.4903968821</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.559483599135381e-06</v>
+        <v>9.506097392351349e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.703703703703704</v>
       </c>
       <c r="AH9" t="n">
-        <v>83848.18290040197</v>
+        <v>109239.8014888655</v>
       </c>
     </row>
     <row r="10">
@@ -27805,28 +27805,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>67.01912366097812</v>
+        <v>87.53493720580896</v>
       </c>
       <c r="AB10" t="n">
-        <v>91.69852166797975</v>
+        <v>119.7691628538185</v>
       </c>
       <c r="AC10" t="n">
-        <v>82.94694345969354</v>
+        <v>108.3385620481571</v>
       </c>
       <c r="AD10" t="n">
-        <v>67019.12366097812</v>
+        <v>87534.93720580896</v>
       </c>
       <c r="AE10" t="n">
-        <v>91698.52166797974</v>
+        <v>119769.1628538185</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.591510734087001e-06</v>
+        <v>9.560860223937978e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.684413580246914</v>
       </c>
       <c r="AH10" t="n">
-        <v>82946.94345969355</v>
+        <v>108338.5620481571</v>
       </c>
     </row>
     <row r="11">
@@ -27911,28 +27911,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>66.89444154931724</v>
+        <v>87.41025509414808</v>
       </c>
       <c r="AB11" t="n">
-        <v>91.52792610221887</v>
+        <v>119.5985672880576</v>
       </c>
       <c r="AC11" t="n">
-        <v>82.79262929529646</v>
+        <v>108.18424788376</v>
       </c>
       <c r="AD11" t="n">
-        <v>66894.44154931724</v>
+        <v>87410.25509414809</v>
       </c>
       <c r="AE11" t="n">
-        <v>91527.92610221887</v>
+        <v>119598.5672880576</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.591510734087001e-06</v>
+        <v>9.560860223937978e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.684413580246914</v>
       </c>
       <c r="AH11" t="n">
-        <v>82792.62929529646</v>
+        <v>108184.24788376</v>
       </c>
     </row>
   </sheetData>
@@ -28208,28 +28208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.25512870806149</v>
+        <v>68.49823239915968</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.55181949683581</v>
+        <v>93.7223034972309</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.77283882908262</v>
+        <v>84.77757839155724</v>
       </c>
       <c r="AD2" t="n">
-        <v>44255.12870806149</v>
+        <v>68498.23239915968</v>
       </c>
       <c r="AE2" t="n">
-        <v>60551.81949683581</v>
+        <v>93722.3034972309</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.640446822761056e-06</v>
+        <v>1.423353606764307e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.98533950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>54772.83882908262</v>
+        <v>84777.57839155724</v>
       </c>
     </row>
   </sheetData>
@@ -28505,28 +28505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.10267357701647</v>
+        <v>94.77391018115443</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.1270354010368</v>
+        <v>129.6738450396296</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.18929728560019</v>
+        <v>117.2979552674663</v>
       </c>
       <c r="AD2" t="n">
-        <v>76102.67357701648</v>
+        <v>94773.91018115444</v>
       </c>
       <c r="AE2" t="n">
-        <v>104127.0354010368</v>
+        <v>129673.8450396296</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.226362603938912e-06</v>
+        <v>9.629220501748053e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.340277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>94189.29728560019</v>
+        <v>117297.9552674663</v>
       </c>
     </row>
     <row r="3">
@@ -28611,28 +28611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.65257068364205</v>
+        <v>78.40905863380058</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.61927889501283</v>
+        <v>107.2827331862548</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.82964947066931</v>
+        <v>97.04381970324759</v>
       </c>
       <c r="AD3" t="n">
-        <v>59652.57068364205</v>
+        <v>78409.05863380058</v>
       </c>
       <c r="AE3" t="n">
-        <v>81619.27889501283</v>
+        <v>107282.7331862548</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.99995268633562e-06</v>
+        <v>1.105450803838955e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.780864197530864</v>
       </c>
       <c r="AH3" t="n">
-        <v>73829.6494706693</v>
+        <v>97043.81970324759</v>
       </c>
     </row>
     <row r="4">
@@ -28717,28 +28717,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.90260830224479</v>
+        <v>75.65909625240333</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.85665904500902</v>
+        <v>103.520113336251</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.42612877827854</v>
+        <v>93.64029901085684</v>
       </c>
       <c r="AD4" t="n">
-        <v>56902.60830224479</v>
+        <v>75659.09625240332</v>
       </c>
       <c r="AE4" t="n">
-        <v>77856.65904500903</v>
+        <v>103520.113336251</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.285603131685997e-06</v>
+        <v>1.158079971257004e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.607253086419753</v>
       </c>
       <c r="AH4" t="n">
-        <v>70426.12877827854</v>
+        <v>93640.29901085683</v>
       </c>
     </row>
     <row r="5">
@@ -28823,28 +28823,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>56.32810742656588</v>
+        <v>75.08459537672441</v>
       </c>
       <c r="AB5" t="n">
-        <v>77.07060160171568</v>
+        <v>102.7340558929576</v>
       </c>
       <c r="AC5" t="n">
-        <v>69.7150915541343</v>
+        <v>92.9292617867126</v>
       </c>
       <c r="AD5" t="n">
-        <v>56328.10742656588</v>
+        <v>75084.59537672441</v>
       </c>
       <c r="AE5" t="n">
-        <v>77070.60160171568</v>
+        <v>102734.0558929576</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.346507404454672e-06</v>
+        <v>1.16930117262459e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.572530864197531</v>
       </c>
       <c r="AH5" t="n">
-        <v>69715.0915541343</v>
+        <v>92929.2617867126</v>
       </c>
     </row>
   </sheetData>
@@ -29120,28 +29120,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.30564326380328</v>
+        <v>116.3615951319384</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.4554327666317</v>
+        <v>159.2110679707216</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.0547739201684</v>
+        <v>144.016187097777</v>
       </c>
       <c r="AD2" t="n">
-        <v>87305.64326380327</v>
+        <v>116361.5951319384</v>
       </c>
       <c r="AE2" t="n">
-        <v>119455.4327666317</v>
+        <v>159211.0679707216</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.57085868678182e-06</v>
+        <v>8.16550547052801e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.776234567901235</v>
       </c>
       <c r="AH2" t="n">
-        <v>108054.7739201684</v>
+        <v>144016.187097777</v>
       </c>
     </row>
     <row r="3">
@@ -29226,28 +29226,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.70016850158868</v>
+        <v>95.67077951515216</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.2621131475948</v>
+        <v>130.9009812294871</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.55218515599078</v>
+        <v>118.4079753016607</v>
       </c>
       <c r="AD3" t="n">
-        <v>66700.16850158868</v>
+        <v>95670.77951515216</v>
       </c>
       <c r="AE3" t="n">
-        <v>91262.11314759481</v>
+        <v>130900.9812294871</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.476121559800735e-06</v>
+        <v>9.782691528648362e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.989197530864198</v>
       </c>
       <c r="AH3" t="n">
-        <v>82552.18515599078</v>
+        <v>118407.9753016607</v>
       </c>
     </row>
     <row r="4">
@@ -29332,28 +29332,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.20240209207</v>
+        <v>82.62993057387449</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.47631483553046</v>
+        <v>113.0579163863888</v>
       </c>
       <c r="AC4" t="n">
-        <v>78.22313671791821</v>
+        <v>102.2678275242832</v>
       </c>
       <c r="AD4" t="n">
-        <v>63202.40209207</v>
+        <v>82629.93057387449</v>
       </c>
       <c r="AE4" t="n">
-        <v>86476.31483553046</v>
+        <v>113057.9163863888</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.819231697117269e-06</v>
+        <v>1.039563274937648e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.753858024691358</v>
       </c>
       <c r="AH4" t="n">
-        <v>78223.13671791821</v>
+        <v>102267.8275242832</v>
       </c>
     </row>
     <row r="5">
@@ -29438,28 +29438,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>61.41053866067571</v>
+        <v>80.8380671424802</v>
       </c>
       <c r="AB5" t="n">
-        <v>84.02460823726258</v>
+        <v>110.6062097881209</v>
       </c>
       <c r="AC5" t="n">
-        <v>76.00541755639644</v>
+        <v>100.0501083627614</v>
       </c>
       <c r="AD5" t="n">
-        <v>61410.5386606757</v>
+        <v>80838.0671424802</v>
       </c>
       <c r="AE5" t="n">
-        <v>84024.60823726258</v>
+        <v>110606.2097881209</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.962939489701677e-06</v>
+        <v>1.065235623328092e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.661265432098766</v>
       </c>
       <c r="AH5" t="n">
-        <v>76005.41755639644</v>
+        <v>100050.1083627614</v>
       </c>
     </row>
     <row r="6">
@@ -29544,28 +29544,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>60.14312326644293</v>
+        <v>79.57065174824743</v>
       </c>
       <c r="AB6" t="n">
-        <v>82.29047458045324</v>
+        <v>108.8720761313116</v>
       </c>
       <c r="AC6" t="n">
-        <v>74.43678718192054</v>
+        <v>98.4814779882855</v>
       </c>
       <c r="AD6" t="n">
-        <v>60143.12326644293</v>
+        <v>79570.65174824743</v>
       </c>
       <c r="AE6" t="n">
-        <v>82290.47458045323</v>
+        <v>108872.0761313116</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.052594134622394e-06</v>
+        <v>1.081251771358995e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.607253086419753</v>
       </c>
       <c r="AH6" t="n">
-        <v>74436.78718192053</v>
+        <v>98481.47798828551</v>
       </c>
     </row>
     <row r="7">
@@ -29650,28 +29650,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>59.81375319081637</v>
+        <v>79.24128167262087</v>
       </c>
       <c r="AB7" t="n">
-        <v>81.83981591219899</v>
+        <v>108.4214174630573</v>
       </c>
       <c r="AC7" t="n">
-        <v>74.02913874446092</v>
+        <v>98.07382955082591</v>
       </c>
       <c r="AD7" t="n">
-        <v>59813.75319081637</v>
+        <v>79241.28167262087</v>
       </c>
       <c r="AE7" t="n">
-        <v>81839.81591219899</v>
+        <v>108421.4174630573</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.090063436981937e-06</v>
+        <v>1.087945388781001e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.584104938271605</v>
       </c>
       <c r="AH7" t="n">
-        <v>74029.13874446093</v>
+        <v>98073.8295508259</v>
       </c>
     </row>
   </sheetData>
